--- a/LF/TAS/Mozambique/tete/mz_lf_tas2_3_resultat_fts_202101.xlsx
+++ b/LF/TAS/Mozambique/tete/mz_lf_tas2_3_resultat_fts_202101.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Mozambique\tete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7B9AD0-EF7F-47CB-9E68-A8C8DA9600CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1504C9-99D9-4F4C-A749-8CED0C0BF069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="222">
   <si>
     <t>form_title</t>
   </si>
@@ -1302,11 +1302,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1413,9 @@
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="16"/>
-      <c r="M2" s="12"/>
+      <c r="M2" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="11"/>
@@ -1439,7 +1441,9 @@
       <c r="J3" s="23"/>
       <c r="K3" s="20"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="M3" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="N3" s="20"/>
       <c r="O3" s="24"/>
       <c r="P3" s="11"/>
@@ -4775,7 +4779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
